--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpina1e-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Serpina1e-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Serpina1e</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Serpina1e</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1908873333333333</v>
+        <v>10.07790633333333</v>
       </c>
       <c r="H2">
-        <v>0.572662</v>
+        <v>30.233719</v>
       </c>
       <c r="I2">
-        <v>0.01858907088112687</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.01858907088112687</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>3.276873134286668</v>
+        <v>20.42907845619711</v>
       </c>
       <c r="R2">
-        <v>29.49185820858001</v>
+        <v>183.861706105774</v>
       </c>
       <c r="S2">
-        <v>0.001041630030513077</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="T2">
-        <v>0.001041630030513077</v>
+        <v>0.006596284565418615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1908873333333333</v>
+        <v>10.07790633333333</v>
       </c>
       <c r="H3">
-        <v>0.572662</v>
+        <v>30.233719</v>
       </c>
       <c r="I3">
-        <v>0.01858907088112687</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01858907088112687</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>48.95196959359911</v>
+        <v>2584.421688866067</v>
       </c>
       <c r="R3">
-        <v>440.5677263423919</v>
+        <v>23259.7951997946</v>
       </c>
       <c r="S3">
-        <v>0.01556051744815432</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="T3">
-        <v>0.01556051744815432</v>
+        <v>0.8344762556643374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1908873333333333</v>
+        <v>10.07790633333333</v>
       </c>
       <c r="H4">
-        <v>0.572662</v>
+        <v>30.233719</v>
       </c>
       <c r="I4">
-        <v>0.01858907088112687</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.01858907088112687</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>6.250679921543554</v>
+        <v>492.2076226837826</v>
       </c>
       <c r="R4">
-        <v>56.256119293892</v>
+        <v>4429.868604154043</v>
       </c>
       <c r="S4">
-        <v>0.001986923402459468</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="T4">
-        <v>0.001986923402459468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>10.07790633333333</v>
-      </c>
-      <c r="H5">
-        <v>30.233719</v>
-      </c>
-      <c r="I5">
-        <v>0.9814109291188732</v>
-      </c>
-      <c r="J5">
-        <v>0.9814109291188731</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>17.16653000000001</v>
-      </c>
-      <c r="N5">
-        <v>51.49959000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.05603453971282792</v>
-      </c>
-      <c r="P5">
-        <v>0.05603453971282792</v>
-      </c>
-      <c r="Q5">
-        <v>173.0026814083567</v>
-      </c>
-      <c r="R5">
-        <v>1557.02413267521</v>
-      </c>
-      <c r="S5">
-        <v>0.05499290968231484</v>
-      </c>
-      <c r="T5">
-        <v>0.05499290968231484</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>10.07790633333333</v>
-      </c>
-      <c r="H6">
-        <v>30.233719</v>
-      </c>
-      <c r="I6">
-        <v>0.9814109291188732</v>
-      </c>
-      <c r="J6">
-        <v>0.9814109291188731</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>256.4443053333333</v>
-      </c>
-      <c r="N6">
-        <v>769.332916</v>
-      </c>
-      <c r="O6">
-        <v>0.8370788162388805</v>
-      </c>
-      <c r="P6">
-        <v>0.8370788162388805</v>
-      </c>
-      <c r="Q6">
-        <v>2584.421688866067</v>
-      </c>
-      <c r="R6">
-        <v>23259.7951997946</v>
-      </c>
-      <c r="S6">
-        <v>0.8215182987907262</v>
-      </c>
-      <c r="T6">
-        <v>0.8215182987907261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>10.07790633333333</v>
-      </c>
-      <c r="H7">
-        <v>30.233719</v>
-      </c>
-      <c r="I7">
-        <v>0.9814109291188732</v>
-      </c>
-      <c r="J7">
-        <v>0.9814109291188731</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>32.74538866666666</v>
-      </c>
-      <c r="N7">
-        <v>98.236166</v>
-      </c>
-      <c r="O7">
-        <v>0.1068866440482915</v>
-      </c>
-      <c r="P7">
-        <v>0.1068866440482915</v>
-      </c>
-      <c r="Q7">
-        <v>330.0049598312615</v>
-      </c>
-      <c r="R7">
-        <v>2970.044638481354</v>
-      </c>
-      <c r="S7">
-        <v>0.1048997206458321</v>
-      </c>
-      <c r="T7">
-        <v>0.1048997206458321</v>
+        <v>0.158927459770244</v>
       </c>
     </row>
   </sheetData>
